--- a/db/load/cdisc/ct/sdtm/SDTM Terminology 2007-03-06.xlsx
+++ b/db/load/cdisc/ct/sdtm/SDTM Terminology 2007-03-06.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/sdtm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BA9D52-C4CC-E14F-BB89-A43169D34BD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255630AE-7615-D140-BDA1-DD69FF194131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6678" uniqueCount="3822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6709" uniqueCount="3822">
   <si>
     <t>C49631</t>
   </si>
@@ -12030,8 +12030,8 @@
   </sheetPr>
   <dimension ref="A1:I882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A981" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A783" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F793" sqref="F793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -12077,7 +12077,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1965</v>
       </c>
@@ -12093,7 +12093,9 @@
       <c r="E2" s="24" t="s">
         <v>3802</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="25" t="s">
+        <v>3674</v>
+      </c>
       <c r="G2" s="9" t="s">
         <v>1966</v>
       </c>
@@ -12299,7 +12301,9 @@
       <c r="E10" s="24" t="s">
         <v>3803</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="25" t="s">
+        <v>2992</v>
+      </c>
       <c r="G10" s="9" t="s">
         <v>1952</v>
       </c>
@@ -12480,7 +12484,9 @@
       <c r="E17" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="25" t="s">
+        <v>1343</v>
+      </c>
       <c r="G17" s="9" t="s">
         <v>238</v>
       </c>
@@ -12516,7 +12522,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>673</v>
       </c>
@@ -12707,7 +12713,9 @@
       <c r="E26" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="25" t="s">
+        <v>3134</v>
+      </c>
       <c r="G26" s="9" t="s">
         <v>1417</v>
       </c>
@@ -12818,7 +12826,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>2816</v>
       </c>
@@ -12843,7 +12851,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
         <v>2158</v>
       </c>
@@ -12859,7 +12867,9 @@
       <c r="E32" s="24" t="s">
         <v>3804</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="25" t="s">
+        <v>2990</v>
+      </c>
       <c r="G32" s="9" t="s">
         <v>2159</v>
       </c>
@@ -12920,7 +12930,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="34" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>1975</v>
       </c>
@@ -12936,7 +12946,9 @@
       <c r="E35" s="26" t="s">
         <v>3805</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="25" t="s">
+        <v>421</v>
+      </c>
       <c r="G35" s="9" t="s">
         <v>1976</v>
       </c>
@@ -12947,7 +12959,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>449</v>
       </c>
@@ -13322,7 +13334,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="168" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" ht="154" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>2829</v>
       </c>
@@ -13397,7 +13409,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>1298</v>
       </c>
@@ -13613,7 +13625,9 @@
       <c r="E62" s="24" t="s">
         <v>3806</v>
       </c>
-      <c r="F62" s="9"/>
+      <c r="F62" s="25" t="s">
+        <v>165</v>
+      </c>
       <c r="G62" s="9" t="s">
         <v>718</v>
       </c>
@@ -13732,7 +13746,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A67" s="12" t="s">
         <v>2880</v>
       </c>
@@ -13775,7 +13789,9 @@
       <c r="E68" s="26" t="s">
         <v>3133</v>
       </c>
-      <c r="F68" s="9"/>
+      <c r="F68" s="25" t="s">
+        <v>1733</v>
+      </c>
       <c r="G68" s="9" t="s">
         <v>3401</v>
       </c>
@@ -13877,7 +13893,9 @@
       <c r="E72" s="24" t="s">
         <v>3807</v>
       </c>
-      <c r="F72" s="9"/>
+      <c r="F72" s="25" t="s">
+        <v>2325</v>
+      </c>
       <c r="G72" s="9" t="s">
         <v>2326</v>
       </c>
@@ -13996,7 +14014,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A77" s="10" t="s">
         <v>3593</v>
       </c>
@@ -14266,7 +14284,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A87" s="10" t="s">
         <v>11</v>
       </c>
@@ -14860,7 +14878,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="10" t="s">
         <v>2229</v>
       </c>
@@ -15562,7 +15580,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A135" s="10" t="s">
         <v>793</v>
       </c>
@@ -15913,7 +15931,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A148" s="10" t="s">
         <v>1024</v>
       </c>
@@ -16210,7 +16228,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A159" s="10" t="s">
         <v>3475</v>
       </c>
@@ -16561,7 +16579,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A172" s="10" t="s">
         <v>3793</v>
       </c>
@@ -16777,7 +16795,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A180" s="10" t="s">
         <v>2380</v>
       </c>
@@ -17020,7 +17038,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A189" s="10" t="s">
         <v>2262</v>
       </c>
@@ -18073,7 +18091,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A228" s="10" t="s">
         <v>970</v>
       </c>
@@ -18343,7 +18361,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A238" s="10" t="s">
         <v>974</v>
       </c>
@@ -18505,7 +18523,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A244" s="10" t="s">
         <v>1039</v>
       </c>
@@ -19207,7 +19225,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A270" s="10" t="s">
         <v>3472</v>
       </c>
@@ -19504,7 +19522,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A281" s="10" t="s">
         <v>2031</v>
       </c>
@@ -20125,7 +20143,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A304" s="10" t="s">
         <v>2614</v>
       </c>
@@ -20462,10 +20480,12 @@
       <c r="D316" s="9" t="s">
         <v>1736</v>
       </c>
-      <c r="E316" s="24" t="s">
+      <c r="E316" s="25" t="s">
         <v>1907</v>
       </c>
-      <c r="F316" s="9"/>
+      <c r="F316" s="25" t="s">
+        <v>1736</v>
+      </c>
       <c r="G316" s="9" t="s">
         <v>1908</v>
       </c>
@@ -20517,7 +20537,9 @@
       <c r="E318" s="24" t="s">
         <v>3821</v>
       </c>
-      <c r="F318" s="9"/>
+      <c r="F318" s="25" t="s">
+        <v>1089</v>
+      </c>
       <c r="G318" s="9" t="s">
         <v>289</v>
       </c>
@@ -20733,7 +20755,9 @@
       <c r="E326" s="24" t="s">
         <v>3820</v>
       </c>
-      <c r="F326" s="9"/>
+      <c r="F326" s="25" t="s">
+        <v>2991</v>
+      </c>
       <c r="G326" s="9" t="s">
         <v>2161</v>
       </c>
@@ -20787,7 +20811,9 @@
       <c r="E328" s="24" t="s">
         <v>3800</v>
       </c>
-      <c r="F328" s="9"/>
+      <c r="F328" s="25" t="s">
+        <v>1781</v>
+      </c>
       <c r="G328" s="9" t="s">
         <v>3765</v>
       </c>
@@ -20916,7 +20942,9 @@
       <c r="E333" s="24" t="s">
         <v>3801</v>
       </c>
-      <c r="F333" s="9"/>
+      <c r="F333" s="25" t="s">
+        <v>1781</v>
+      </c>
       <c r="G333" s="9" t="s">
         <v>167</v>
       </c>
@@ -21043,7 +21071,9 @@
       <c r="E338" s="24" t="s">
         <v>3808</v>
       </c>
-      <c r="F338" s="9"/>
+      <c r="F338" s="25" t="s">
+        <v>2713</v>
+      </c>
       <c r="G338" s="9" t="s">
         <v>2094</v>
       </c>
@@ -21404,7 +21434,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="98" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A353" s="10" t="s">
         <v>2164</v>
       </c>
@@ -21979,7 +22009,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="98" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A376" s="10" t="s">
         <v>2655</v>
       </c>
@@ -22079,7 +22109,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A380" s="10" t="s">
         <v>2903</v>
       </c>
@@ -22154,7 +22184,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="70" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:9" ht="56" x14ac:dyDescent="0.15">
       <c r="A383" s="12" t="s">
         <v>1836</v>
       </c>
@@ -22404,7 +22434,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A393" s="10" t="s">
         <v>2179</v>
       </c>
@@ -22529,7 +22559,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A398" s="10" t="s">
         <v>1077</v>
       </c>
@@ -22729,7 +22759,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A406" s="10" t="s">
         <v>1518</v>
       </c>
@@ -22854,7 +22884,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="126" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:9" ht="112" x14ac:dyDescent="0.15">
       <c r="A411" s="10" t="s">
         <v>2185</v>
       </c>
@@ -22954,7 +22984,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A415" s="10" t="s">
         <v>1379</v>
       </c>
@@ -22979,7 +23009,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="98" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A416" s="10" t="s">
         <v>1015</v>
       </c>
@@ -23204,7 +23234,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A425" s="10" t="s">
         <v>3599</v>
       </c>
@@ -23504,7 +23534,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="182" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:9" ht="168" x14ac:dyDescent="0.15">
       <c r="A437" s="10" t="s">
         <v>2209</v>
       </c>
@@ -24229,7 +24259,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A466" s="12" t="s">
         <v>1847</v>
       </c>
@@ -24454,7 +24484,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="70" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:9" ht="56" x14ac:dyDescent="0.15">
       <c r="A475" s="10" t="s">
         <v>1373</v>
       </c>
@@ -25256,7 +25286,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="507" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:9" ht="34" x14ac:dyDescent="0.15">
       <c r="A507" s="8" t="s">
         <v>266</v>
       </c>
@@ -25272,7 +25302,9 @@
       <c r="E507" s="24" t="s">
         <v>3809</v>
       </c>
-      <c r="F507" s="9"/>
+      <c r="F507" s="25" t="s">
+        <v>3043</v>
+      </c>
       <c r="G507" s="9" t="s">
         <v>267</v>
       </c>
@@ -25701,7 +25733,9 @@
       <c r="E524" s="24" t="s">
         <v>3810</v>
       </c>
-      <c r="F524" s="9"/>
+      <c r="F524" s="25" t="s">
+        <v>1727</v>
+      </c>
       <c r="G524" s="9" t="s">
         <v>3117</v>
       </c>
@@ -25839,7 +25873,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="530" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:9" ht="34" x14ac:dyDescent="0.15">
       <c r="A530" s="8" t="s">
         <v>831</v>
       </c>
@@ -25855,7 +25889,9 @@
       <c r="E530" s="24" t="s">
         <v>832</v>
       </c>
-      <c r="F530" s="9"/>
+      <c r="F530" s="25" t="s">
+        <v>2127</v>
+      </c>
       <c r="G530" s="9" t="s">
         <v>3099</v>
       </c>
@@ -27441,7 +27477,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="594" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A594" s="10" t="s">
         <v>860</v>
       </c>
@@ -28293,7 +28329,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="628" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A628" s="10" t="s">
         <v>494</v>
       </c>
@@ -28668,7 +28704,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="643" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:9" ht="51" x14ac:dyDescent="0.15">
       <c r="A643" s="8" t="s">
         <v>719</v>
       </c>
@@ -28684,7 +28720,9 @@
       <c r="E643" s="24" t="s">
         <v>3811</v>
       </c>
-      <c r="F643" s="9"/>
+      <c r="F643" s="25" t="s">
+        <v>1087</v>
+      </c>
       <c r="G643" s="9" t="s">
         <v>720</v>
       </c>
@@ -28792,7 +28830,9 @@
       <c r="E647" s="24" t="s">
         <v>3812</v>
       </c>
-      <c r="F647" s="9"/>
+      <c r="F647" s="25" t="s">
+        <v>1292</v>
+      </c>
       <c r="G647" s="9" t="s">
         <v>1293</v>
       </c>
@@ -28927,7 +28967,9 @@
       <c r="E652" s="24" t="s">
         <v>698</v>
       </c>
-      <c r="F652" s="9"/>
+      <c r="F652" s="25" t="s">
+        <v>1775</v>
+      </c>
       <c r="G652" s="9" t="s">
         <v>3682</v>
       </c>
@@ -29137,7 +29179,9 @@
       <c r="E660" s="24" t="s">
         <v>3814</v>
       </c>
-      <c r="F660" s="9"/>
+      <c r="F660" s="25" t="s">
+        <v>3003</v>
+      </c>
       <c r="G660" s="9" t="s">
         <v>2644</v>
       </c>
@@ -29175,7 +29219,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="662" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A662" s="10" t="s">
         <v>2645</v>
       </c>
@@ -29202,7 +29246,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="663" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A663" s="10" t="s">
         <v>2651</v>
       </c>
@@ -29229,7 +29273,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="664" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A664" s="10" t="s">
         <v>1169</v>
       </c>
@@ -29256,7 +29300,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="665" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A665" s="10" t="s">
         <v>1172</v>
       </c>
@@ -29391,7 +29435,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="670" spans="1:9" ht="70" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:9" ht="56" x14ac:dyDescent="0.15">
       <c r="A670" s="10" t="s">
         <v>1184</v>
       </c>
@@ -29472,7 +29516,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="673" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A673" s="10" t="s">
         <v>260</v>
       </c>
@@ -29553,7 +29597,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="676" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A676" s="10" t="s">
         <v>1199</v>
       </c>
@@ -29661,7 +29705,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="680" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A680" s="10" t="s">
         <v>1207</v>
       </c>
@@ -29742,7 +29786,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="683" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A683" s="10" t="s">
         <v>302</v>
       </c>
@@ -29769,7 +29813,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="684" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A684" s="10" t="s">
         <v>315</v>
       </c>
@@ -29796,7 +29840,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="685" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A685" s="10" t="s">
         <v>318</v>
       </c>
@@ -29850,7 +29894,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="687" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A687" s="10" t="s">
         <v>299</v>
       </c>
@@ -29877,7 +29921,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="688" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A688" s="10" t="s">
         <v>321</v>
       </c>
@@ -29985,7 +30029,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="692" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A692" s="10" t="s">
         <v>333</v>
       </c>
@@ -30012,7 +30056,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="693" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A693" s="10" t="s">
         <v>336</v>
       </c>
@@ -30066,7 +30110,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="695" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A695" s="10" t="s">
         <v>342</v>
       </c>
@@ -30255,7 +30299,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="702" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A702" s="10" t="s">
         <v>775</v>
       </c>
@@ -30309,7 +30353,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="704" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:9" ht="34" x14ac:dyDescent="0.15">
       <c r="A704" s="8" t="s">
         <v>740</v>
       </c>
@@ -30325,7 +30369,9 @@
       <c r="E704" s="8" t="s">
         <v>3683</v>
       </c>
-      <c r="F704" s="9"/>
+      <c r="F704" s="25" t="s">
+        <v>1744</v>
+      </c>
       <c r="G704" s="9" t="s">
         <v>742</v>
       </c>
@@ -30361,7 +30407,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="706" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A706" s="10" t="s">
         <v>743</v>
       </c>
@@ -30427,7 +30473,9 @@
       <c r="E708" s="24" t="s">
         <v>1913</v>
       </c>
-      <c r="F708" s="9"/>
+      <c r="F708" s="25" t="s">
+        <v>1738</v>
+      </c>
       <c r="G708" s="9" t="s">
         <v>3684</v>
       </c>
@@ -30579,7 +30627,9 @@
       <c r="E714" s="24" t="s">
         <v>3079</v>
       </c>
-      <c r="F714" s="9"/>
+      <c r="F714" s="25" t="s">
+        <v>2974</v>
+      </c>
       <c r="G714" s="9" t="s">
         <v>2958</v>
       </c>
@@ -30590,7 +30640,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="715" spans="1:9" ht="319" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:9" ht="306" x14ac:dyDescent="0.15">
       <c r="A715" s="10" t="s">
         <v>554</v>
       </c>
@@ -30930,7 +30980,9 @@
       <c r="E727" s="24" t="s">
         <v>3815</v>
       </c>
-      <c r="F727" s="9"/>
+      <c r="F727" s="25" t="s">
+        <v>1771</v>
+      </c>
       <c r="G727" s="9" t="s">
         <v>688</v>
       </c>
@@ -31265,7 +31317,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="740" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A740" s="10" t="s">
         <v>831</v>
       </c>
@@ -31551,7 +31603,9 @@
       <c r="E750" s="24" t="s">
         <v>746</v>
       </c>
-      <c r="F750" s="9"/>
+      <c r="F750" s="25" t="s">
+        <v>1746</v>
+      </c>
       <c r="G750" s="9" t="s">
         <v>747</v>
       </c>
@@ -31662,7 +31716,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="755" spans="1:9" ht="140" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:9" ht="126" x14ac:dyDescent="0.15">
       <c r="A755" s="10" t="s">
         <v>545</v>
       </c>
@@ -31778,7 +31832,9 @@
       <c r="E759" s="24" t="s">
         <v>3816</v>
       </c>
-      <c r="F759" s="9"/>
+      <c r="F759" s="25" t="s">
+        <v>1759</v>
+      </c>
       <c r="G759" s="9" t="s">
         <v>1798</v>
       </c>
@@ -32181,7 +32237,9 @@
       <c r="E774" s="24" t="s">
         <v>3817</v>
       </c>
-      <c r="F774" s="9"/>
+      <c r="F774" s="25" t="s">
+        <v>1756</v>
+      </c>
       <c r="G774" s="9" t="s">
         <v>1790</v>
       </c>
@@ -32489,7 +32547,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="786" spans="1:9" ht="168" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:9" ht="154" x14ac:dyDescent="0.15">
       <c r="A786" s="10" t="s">
         <v>406</v>
       </c>
@@ -32559,7 +32617,9 @@
       <c r="E788" s="24" t="s">
         <v>3818</v>
       </c>
-      <c r="F788" s="9"/>
+      <c r="F788" s="25" t="s">
+        <v>443</v>
+      </c>
       <c r="G788" s="9" t="s">
         <v>444</v>
       </c>
@@ -32694,7 +32754,9 @@
       <c r="E793" s="25" t="s">
         <v>3819</v>
       </c>
-      <c r="F793" s="9"/>
+      <c r="F793" s="25" t="s">
+        <v>2408</v>
+      </c>
       <c r="G793" s="9" t="s">
         <v>3378</v>
       </c>
